--- a/codebook/cleaning_checklist.xlsx
+++ b/codebook/cleaning_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA508DD-6B7A-4100-B3B7-BC166E24882B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB71A32-35CD-4AAC-817D-7F2ADD64596F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12458" yWindow="150" windowWidth="15195" windowHeight="15450" xr2:uid="{3F7F38F1-BF0E-4825-AA9A-771D1F378140}"/>
   </bookViews>

--- a/codebook/cleaning_checklist.xlsx
+++ b/codebook/cleaning_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB71A32-35CD-4AAC-817D-7F2ADD64596F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D559E8-3378-498A-9701-1ACDF67A56A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12458" yWindow="150" windowWidth="15195" windowHeight="15450" xr2:uid="{3F7F38F1-BF0E-4825-AA9A-771D1F378140}"/>
   </bookViews>
@@ -1844,11 +1844,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D7F27E-DA68-48B6-A573-400CAE4B6187}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H375" sqref="H375"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1916,7 +1917,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>388</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>381</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>369</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>373</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>477</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>400</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>384</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>371</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>387</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>460</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>459</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>458</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>462</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>457</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>464</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>463</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>461</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>466</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>377</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>379</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>378</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>272</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>386</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>374</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>375</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>401</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>314</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>269</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>290</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>318</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>319</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>320</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>321</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>322</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>323</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>324</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>325</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>326</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>407</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>403</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>391</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>390</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>389</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>274</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>276</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>277</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>278</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>279</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>281</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>282</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>284</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>148</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>246</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>294</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>296</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>29</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>34</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>43</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>48</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -6593,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>54</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>56</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>57</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>385</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>474</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>315</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>63</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>64</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>65</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>66</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>67</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>68</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>69</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>70</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>71</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>72</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>73</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>74</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>75</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>76</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>77</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>79</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>80</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>81</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>82</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>84</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>86</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>87</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>88</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>91</v>
       </c>
@@ -7946,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>92</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>93</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>94</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>95</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>96</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>97</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>98</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>99</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>102</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>103</v>
       </c>
@@ -8342,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>104</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>105</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>106</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>107</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>108</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>109</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>110</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>111</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>112</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>114</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>115</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>423</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>425</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>426</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>116</v>
       </c>
@@ -8936,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>427</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>428</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>429</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>118</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>430</v>
       </c>
@@ -9101,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>431</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>432</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>433</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>434</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>119</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>435</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>121</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>122</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>123</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>125</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>126</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>127</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>128</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>129</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>130</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>131</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>132</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>133</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>134</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>135</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>136</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>137</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>138</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>327</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>155</v>
       </c>
@@ -10060,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>156</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>157</v>
       </c>
@@ -10126,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>158</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>159</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>160</v>
       </c>
@@ -10225,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>161</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>162</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>163</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>164</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>165</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>166</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>167</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>168</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>169</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>170</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>171</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>172</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>173</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>174</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>175</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>176</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>177</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>178</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>179</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>180</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>181</v>
       </c>
@@ -10918,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>182</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>408</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>409</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>410</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>328</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>329</v>
       </c>
@@ -11116,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>330</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>183</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>333</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>334</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>404</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>405</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>335</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>336</v>
       </c>
@@ -11380,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>337</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>338</v>
       </c>
@@ -11446,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>186</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>339</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>188</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>340</v>
       </c>
@@ -11578,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>341</v>
       </c>
@@ -11611,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>342</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>343</v>
       </c>
@@ -11677,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>344</v>
       </c>
@@ -11710,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>345</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>346</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>347</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>348</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>349</v>
       </c>
@@ -11875,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>350</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>351</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>352</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>288</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>353</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>354</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>200</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>201</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>355</v>
       </c>
@@ -12172,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>356</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>202</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>203</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>357</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>204</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>205</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>358</v>
       </c>
@@ -12403,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>206</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>207</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>359</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>360</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>412</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>213</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>214</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>216</v>
       </c>
@@ -12667,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>217</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>413</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>451</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>219</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>223</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>414</v>
       </c>
@@ -12865,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>415</v>
       </c>
@@ -12898,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>229</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>230</v>
       </c>
@@ -12964,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>417</v>
       </c>
@@ -12997,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>418</v>
       </c>
@@ -13030,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>475</v>
       </c>
@@ -13063,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>419</v>
       </c>
@@ -13096,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>235</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>420</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>421</v>
       </c>
@@ -13195,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>237</v>
       </c>
@@ -13228,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>238</v>
       </c>
@@ -13261,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>240</v>
       </c>
@@ -13294,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>241</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>243</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>244</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -13422,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -13451,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>260</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>184</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>185</v>
       </c>
@@ -13546,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>189</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>190</v>
       </c>
@@ -13645,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>191</v>
       </c>
@@ -13678,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>192</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>193</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>194</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>481</v>
       </c>
@@ -13810,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>478</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>332</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>287</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>407</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>210</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>211</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>483</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>482</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>365</v>
       </c>
@@ -14113,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>196</v>
       </c>
@@ -14146,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>197</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>208</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>261</v>
       </c>
@@ -15469,7 +15470,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J448" xr:uid="{D05D33FB-82F8-427E-ABEB-CBAF3DD529C0}"/>
+  <autoFilter ref="A1:J448" xr:uid="{D05D33FB-82F8-427E-ABEB-CBAF3DD529C0}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K441">
     <sortCondition ref="B2:B441"/>
     <sortCondition descending="1" ref="I2:I441"/>
